--- a/data/trans_bre/P25A_12_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>163,25%</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>127,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>145,44%</t>
+          <t>221,91%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>200,84%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>103,67%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,08</t>
+          <t>-0,87; 8,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,11</t>
+          <t>1,64; 10,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,11</t>
+          <t>1,49; 11,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,94; 564,35</t>
+          <t>-0,53; 10,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 316,86</t>
+          <t>-33,3; 682,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,41; 443,88</t>
+          <t>21,27; 847,75</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 734,11</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-13,27; 400,23</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>209,67%</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>194,58%</t>
+          <t>80,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>142,72%</t>
+          <t>138,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>51,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>66,46%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 11,07</t>
+          <t>-1,97; 9,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,41</t>
+          <t>-0,51; 11,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 10,31</t>
+          <t>-3,23; 7,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,68; 755,0</t>
+          <t>-2,19; 10,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,85; 721,94</t>
+          <t>-37,12; 548,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 520,65</t>
+          <t>-27,13; 643,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-54,12; 378,06</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,45; 242,08</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-39,83%</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>137,41%</t>
+          <t>-59,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>216,49%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 3,89</t>
+          <t>-18,18; 2,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 12,41</t>
+          <t>2,5; 20,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 9,49</t>
+          <t>-9,27; 10,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-4,16; 18,82</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>146,51%</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>133,81%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>140,43%</t>
+          <t>202,46%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>117,6%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92,21%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,61</t>
+          <t>-0,14; 6,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,83</t>
+          <t>2,77; 9,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,34</t>
+          <t>0,63; 7,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,06; 340,36</t>
+          <t>1,0; 8,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,16; 285,51</t>
+          <t>-7,85; 256,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,65; 334,47</t>
+          <t>54,44; 660,21</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 325,13</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 241,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_12_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>127,24%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>221,91%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>200,84%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>103,67%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.593943362684814</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.095317591655423</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.001428647184383</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.697429878934931</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.672534106643178</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.447196254480164</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.012885886828219</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9573209106514361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 8,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 10,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,49; 11,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 10,94</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-33,3; 682,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>21,27; 847,75</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>16,98; 734,11</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-13,27; 400,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.06717687821039643</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.899047497532238</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.453413718537757</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.8579423161262743</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2085597494783575</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.277153253976369</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1843412906935813</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1743838486462313</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.331127572775102</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.56822434720994</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.46283989861307</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.47988453561018</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>9.002072252554017</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8.895923483379288</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>7.461908241341328</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.870093270473748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>80,11%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>138,94%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>51,65%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>66,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 9,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 11,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 7,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 10,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-37,12; 548,0</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-27,13; 643,67</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-54,12; 378,06</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-23,45; 242,08</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.835612676484605</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.467521043987167</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.71387016101196</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.694291761322914</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3240457522941733</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.150195757385042</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4051130748643427</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6976535212802613</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-59,63%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>59,41%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>216,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.266079880563946</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.947576462444629</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.065928823497992</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.119027290071132</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6754233906036988</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4012531035154048</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.605545505545237</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2175079662937585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,18; 2,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 20,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,27; 10,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 18,82</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.74908827456894</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.88770939448753</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.703128511390263</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.02361123859771</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.351811056664852</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.795346473605544</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.456737867699987</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.606658624584891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>75,73%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>202,46%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>117,6%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>92,21%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.647530707889643</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.193298219047508</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.774181736911467</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.613311307594488</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6267827236995974</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.9003806651379057</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.536679878876664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 6,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 9,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 7,1</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 8,75</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-7,85; 256,85</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>54,44; 660,21</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 325,13</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>13,29; 241,9</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.46558775664801</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.485487454416768</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.632184763059764</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.40168540605077</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.386804484307218</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.94177927272935</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.19284193407431</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.83848355989458</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.622532017753555</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.001105702014507</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.893670453268674</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.905428304090448</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.6123508185699775</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.877395219762751</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.10646495291047</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9136708320961172</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.522135667305505</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.589581727823218</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5438378337755992</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.9615324207350836</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3162245393036325</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.3533068158516716</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.05456714916623382</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1178090141094753</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.116553193369492</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.14127003807543</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.949598403410226</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.864020967055602</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.349625195932441</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>5.902402092783331</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.140185849414003</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.430218987812958</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
